--- a/meeting minute/meeting minute.xlsx
+++ b/meeting minute/meeting minute.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,174 @@
   </si>
   <si>
     <t>Analasys project requirement, Create/Review usecase diagram</t>
+  </si>
+  <si>
+    <t>17/09/16</t>
+  </si>
+  <si>
+    <t>15:00 - 16:30</t>
+  </si>
+  <si>
+    <t>HuyTCD, ThyNH, LoiBV + Supervisor</t>
+  </si>
+  <si>
+    <t>Review usecase, review ticket activity diagram, dicuss requirement</t>
+  </si>
+  <si>
+    <t>20/09/16</t>
+  </si>
+  <si>
+    <t>22/09/16</t>
+  </si>
+  <si>
+    <t>13:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Modify usecase diagram, modify ticket activity diagram, dicuss requirement, write usecase specification</t>
+  </si>
+  <si>
+    <t>19/09/16</t>
+  </si>
+  <si>
+    <t>13:00 - 19:00</t>
+  </si>
+  <si>
+    <t>21/09/16</t>
+  </si>
+  <si>
+    <t>HuyTCD, ThyNH, NhanLH</t>
+  </si>
+  <si>
+    <t>13:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Review usecase, review ticket activity diagram, create ERD</t>
+  </si>
+  <si>
+    <t>Review usecase, review ticket activity diagram, review state diagram, review ERD, write usecase specification</t>
+  </si>
+  <si>
+    <t>23/09/16</t>
+  </si>
+  <si>
+    <t>13:00 - 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit/review database </t>
+  </si>
+  <si>
+    <t>26/09/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement code </t>
+  </si>
+  <si>
+    <t>27/09/16</t>
+  </si>
+  <si>
+    <t>28/09/16</t>
+  </si>
+  <si>
+    <t>Review and testing</t>
+  </si>
+  <si>
+    <t>29/09/16</t>
+  </si>
+  <si>
+    <t>30/09/16</t>
+  </si>
+  <si>
+    <t>13/10/16</t>
+  </si>
+  <si>
+    <t>14/10/16</t>
+  </si>
+  <si>
+    <t>17/10/16</t>
+  </si>
+  <si>
+    <t>18/10/16</t>
+  </si>
+  <si>
+    <t>19/10/16</t>
+  </si>
+  <si>
+    <t>20/10/16</t>
+  </si>
+  <si>
+    <t>21/10/16</t>
+  </si>
+  <si>
+    <t>24/10/16</t>
+  </si>
+  <si>
+    <t>25/10/16</t>
+  </si>
+  <si>
+    <t>26/10/16</t>
+  </si>
+  <si>
+    <t>27/10/16</t>
+  </si>
+  <si>
+    <t>28/10/16</t>
+  </si>
+  <si>
+    <t>30/10/16</t>
+  </si>
+  <si>
+    <t>13/11/16</t>
+  </si>
+  <si>
+    <t>14/11/16</t>
+  </si>
+  <si>
+    <t>15/11/16</t>
+  </si>
+  <si>
+    <t>16/11/16</t>
+  </si>
+  <si>
+    <t>18/11/16</t>
+  </si>
+  <si>
+    <t>19/11/16</t>
+  </si>
+  <si>
+    <t>20/11/16</t>
+  </si>
+  <si>
+    <t>21/11/16</t>
+  </si>
+  <si>
+    <t>22/11/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuction Testing </t>
+  </si>
+  <si>
+    <t>24/11/16</t>
+  </si>
+  <si>
+    <t>25/11/16</t>
+  </si>
+  <si>
+    <t>26/11/16</t>
+  </si>
+  <si>
+    <t>27/11/16</t>
+  </si>
+  <si>
+    <t>28/11/16</t>
+  </si>
+  <si>
+    <t>30/11/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HuyTCD, ThyNH, NhanLH, LoiBV </t>
   </si>
 </sst>
 </file>
@@ -75,7 +243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,13 +295,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -142,6 +309,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,243 +636,981 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42499</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42591</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="2">
+        <v>42439</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="2">
+        <v>42470</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="2">
+        <v>42592</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="2">
+        <v>42653</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="2">
+        <v>42684</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2">
+        <v>42714</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>42411</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>42440</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>42471</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>42532</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42562</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42593</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42624</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42654</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>42715</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>42381</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>42412</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>42441</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>42472</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
